--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>3,11; 11,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>0,64; 7,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -2,02</t>
+          <t>2,11; 8,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>7,96; 16,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>4,29; 12,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,77</t>
+          <t>0,6; 11,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>7,1; 13,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>3,42; 9,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -2,75</t>
+          <t>2,79; 9,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>31,88; 169,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>6,32; 113,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -2,23</t>
+          <t>19,46; 132,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>50,8; 147,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>27,17; 105,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -0,66</t>
+          <t>7,37; 97,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>56,7; 135,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>25,97; 90,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,16</t>
+          <t>23,84; 91,6</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>3,11; 11,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>0,64; 7,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -2,02</t>
+          <t>2,11; 8,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>7,96; 16,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>4,29; 12,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,77</t>
+          <t>0,6; 11,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>7,1; 13,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>3,42; 9,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -2,75</t>
+          <t>2,79; 9,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>31,88; 169,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>6,32; 113,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -2,23</t>
+          <t>19,46; 132,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>50,8; 147,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>27,17; 105,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -0,66</t>
+          <t>7,37; 97,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>56,7; 135,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>25,97; 90,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,16</t>
+          <t>23,84; 91,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,14</t>
+          <t>3,16; 11,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,04</t>
+          <t>0,41; 7,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,31</t>
+          <t>2,24; 8,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,51</t>
+          <t>8,13; 16,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,32</t>
+          <t>4,07; 12,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 11,4</t>
+          <t>0,63; 11,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,07</t>
+          <t>7,06; 13,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,06</t>
+          <t>3,44; 9,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,14</t>
+          <t>2,12; 8,97</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,88; 169,6</t>
+          <t>31,49; 179,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,32; 113,29</t>
+          <t>2,41; 114,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,46; 132,42</t>
+          <t>23,51; 131,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,8; 147,07</t>
+          <t>49,28; 142,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,17; 105,47</t>
+          <t>24,13; 107,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,37; 97,09</t>
+          <t>8,08; 95,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>56,7; 135,44</t>
+          <t>56,56; 133,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,75</t>
+          <t>26,63; 95,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,84; 91,6</t>
+          <t>19,39; 91,25</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,14</t>
+          <t>3,16; 11,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,04</t>
+          <t>0,41; 7,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,31</t>
+          <t>2,24; 8,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,51</t>
+          <t>8,13; 16,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,32</t>
+          <t>4,07; 12,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 11,4</t>
+          <t>0,63; 11,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,07</t>
+          <t>7,06; 13,29</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,06</t>
+          <t>3,44; 9,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,14</t>
+          <t>2,12; 8,97</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,88; 169,6</t>
+          <t>31,49; 179,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6,32; 113,29</t>
+          <t>2,41; 114,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>19,46; 132,42</t>
+          <t>23,51; 131,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>50,8; 147,07</t>
+          <t>49,28; 142,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>27,17; 105,47</t>
+          <t>24,13; 107,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,37; 97,09</t>
+          <t>8,08; 95,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>56,7; 135,44</t>
+          <t>56,56; 133,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,75</t>
+          <t>26,63; 95,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,84; 91,6</t>
+          <t>19,39; 91,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,53</t>
+          <t>3,09; 10,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,41</t>
+          <t>0,53; 7,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,33</t>
+          <t>2,02; 8,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,56</t>
+          <t>8,12; 16,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,51</t>
+          <t>3,89; 12,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,3</t>
+          <t>0,77; 11,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,29</t>
+          <t>7,09; 13,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,26</t>
+          <t>3,59; 9,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,97</t>
+          <t>2,75; 9,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,49; 179,99</t>
+          <t>30,64; 168,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,41; 114,62</t>
+          <t>5,34; 115,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,51; 131,84</t>
+          <t>20,87; 136,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>49,28; 142,29</t>
+          <t>50,61; 147,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,13; 107,24</t>
+          <t>24,13; 110,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,08; 95,09</t>
+          <t>6,95; 101,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>56,56; 133,75</t>
+          <t>56,37; 133,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>26,63; 95,85</t>
+          <t>29,49; 93,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>19,39; 91,25</t>
+          <t>23,34; 96,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,53</t>
+          <t>3,09; 10,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,41</t>
+          <t>0,53; 7,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,33</t>
+          <t>2,02; 8,21</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,56</t>
+          <t>8,12; 16,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,51</t>
+          <t>3,89; 12,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,3</t>
+          <t>0,77; 11,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,29</t>
+          <t>7,09; 13,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,26</t>
+          <t>3,59; 9,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,97</t>
+          <t>2,75; 9,29</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,49; 179,99</t>
+          <t>30,64; 168,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,41; 114,62</t>
+          <t>5,34; 115,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>23,51; 131,84</t>
+          <t>20,87; 136,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>49,28; 142,29</t>
+          <t>50,61; 147,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,13; 107,24</t>
+          <t>24,13; 110,88</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>8,08; 95,09</t>
+          <t>6,95; 101,2</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>56,56; 133,75</t>
+          <t>56,37; 133,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>26,63; 95,85</t>
+          <t>29,49; 93,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19,39; 91,25</t>
+          <t>23,34; 96,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,84</t>
+          <t>-8,46; -0,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,27</t>
+          <t>-5,62; 0,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,21</t>
+          <t>-5,77; -0,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,97</t>
+          <t>-10,04; -0,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,69</t>
+          <t>-5,87; 2,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,56</t>
+          <t>-1,76; 7,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,03</t>
+          <t>-7,61; -1,58</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,18</t>
+          <t>-4,98; 0,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,29</t>
+          <t>-2,85; 3,31</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>-3,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>-0,3%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,64; 168,44</t>
+          <t>-8,7; -0,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,34; 115,88</t>
+          <t>-5,78; 0,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,87; 136,4</t>
+          <t>-5,9; -0,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,61; 147,56</t>
+          <t>-10,71; -0,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,13; 110,88</t>
+          <t>-6,13; 2,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,95; 101,2</t>
+          <t>-1,89; 7,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>56,37; 133,21</t>
+          <t>-7,99; -1,68</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>29,49; 93,4</t>
+          <t>-5,2; 0,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,34; 96,13</t>
+          <t>-2,99; 3,55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>-17,07</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>-15,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-13,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,84</t>
+          <t>-17,92; -2,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,27</t>
+          <t>-11,58; 1,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,21</t>
+          <t>-13,46; -1,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,12; 16,97</t>
+          <t>-26,04; -12,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,69</t>
+          <t>-20,55; -6,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,56</t>
+          <t>-22,98; -11,39</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,03</t>
+          <t>-20,64; -9,95</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,18</t>
+          <t>-15,9; -5,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,29</t>
+          <t>-17,28; -8,39</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>-11,02%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>-23,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>-17,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>-18,35%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>-12,74%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>-16,1%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,64; 168,44</t>
+          <t>-20,15; -2,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>5,34; 115,88</t>
+          <t>-13,17; 1,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>20,87; 136,4</t>
+          <t>-15,16; -1,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>50,61; 147,56</t>
+          <t>-30,8; -15,57</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,13; 110,88</t>
+          <t>-25,06; -8,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>6,95; 101,2</t>
+          <t>-27,29; -14,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>56,37; 133,21</t>
+          <t>-24,33; -12,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>29,49; 93,4</t>
+          <t>-18,83; -6,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,34; 96,13</t>
+          <t>-20,37; -10,79</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-6,99</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-12,44</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-8,23</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-10,08</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-6,34</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; -3,09</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; -0,53</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; -1,8</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-16,97; -8,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-12,69; -3,89</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 4,6</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; -7,09</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; -3,59</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-7,59%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-14,38%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-5,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; -3,42</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; -0,58</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; -2,06</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-19,18; -9,57</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; -4,81</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 5,43</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; -8,18</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; -4,11</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Edad-trans_camb.xlsx
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,46; -0,79</t>
+          <t>-8,41; -0,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 0,72</t>
+          <t>-5,55; 0,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,31</t>
+          <t>-5,89; -0,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,04; -0,77</t>
+          <t>-9,07; -0,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,49</t>
+          <t>-6,28; 1,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,14</t>
+          <t>-2,06; 6,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -1,58</t>
+          <t>-7,49; -1,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 0,58</t>
+          <t>-4,71; 0,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,31</t>
+          <t>-2,84; 3,02</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -0,83</t>
+          <t>-8,68; -0,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,74</t>
+          <t>-5,71; 0,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,28</t>
+          <t>-6,03; -0,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -0,86</t>
+          <t>-9,71; -0,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,84</t>
+          <t>-6,69; 1,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,91</t>
+          <t>-2,19; 7,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -1,68</t>
+          <t>-7,88; -1,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,58</t>
+          <t>-4,88; 0,6</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,55</t>
+          <t>-2,96; 3,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,92; -2,16</t>
+          <t>-17,06; -1,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 1,38</t>
+          <t>-11,68; 1,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -1,32</t>
+          <t>-13,35; -1,26</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -12,13</t>
+          <t>-25,52; -11,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -6,37</t>
+          <t>-20,81; -6,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-22,98; -11,39</t>
+          <t>-22,13; -11,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,64; -9,95</t>
+          <t>-20,77; -10,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -5,26</t>
+          <t>-16,05; -5,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,28; -8,39</t>
+          <t>-17,27; -8,74</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,15; -2,49</t>
+          <t>-19,21; -2,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 1,49</t>
+          <t>-13,33; 1,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -1,6</t>
+          <t>-15,1; -1,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -15,57</t>
+          <t>-31,17; -15,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -8,49</t>
+          <t>-25,44; -8,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -14,82</t>
+          <t>-26,77; -14,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,33; -12,32</t>
+          <t>-24,68; -12,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -6,63</t>
+          <t>-18,92; -7,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,37; -10,79</t>
+          <t>-20,51; -11,09</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>-10,81; -2,97</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>-7,29; -0,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -1,8</t>
+          <t>-8,36; -2,02</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>-16,79; -7,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>-12,24; -3,82</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,6</t>
+          <t>-10,72; 4,74</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>-12,97; -7,18</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>-9,17; -3,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,17</t>
+          <t>-8,37; 0,46</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>-11,75; -3,35</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>-7,78; -0,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -2,06</t>
+          <t>-8,89; -2,22</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>-19,08; -9,59</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>-13,84; -4,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 5,43</t>
+          <t>-12,29; 5,53</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>-14,43; -8,1</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>-10,31; -3,86</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 0,22</t>
+          <t>-9,32; 0,81</t>
         </is>
       </c>
     </row>
